--- a/Labs/DAT215_1/Setup/Normalize to 1NF.xlsx
+++ b/Labs/DAT215_1/Setup/Normalize to 1NF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\OneDrive\SQL2016Online\GitHubLabs\DAT215_1\Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>OrderID</t>
   </si>
@@ -100,9 +100,6 @@
     <t>BE-2908 (1 x 10.00)</t>
   </si>
   <si>
-    <t>ProductNumber</t>
-  </si>
-  <si>
     <t>Repeating data groups removed</t>
   </si>
   <si>
@@ -116,32 +113,6 @@
   </si>
   <si>
     <t>OrderID (Key)</t>
-  </si>
-  <si>
-    <t>ProductID (Key)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Table</t>
-    </r>
   </si>
   <si>
     <r>
@@ -200,6 +171,41 @@
   </si>
   <si>
     <t>Decomposed original data set to create three tables</t>
+  </si>
+  <si>
+    <t>Phone 1</t>
+  </si>
+  <si>
+    <t>Phone 2</t>
+  </si>
+  <si>
+    <t>Product (Key)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Table</t>
+    </r>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
   </si>
 </sst>
 </file>
@@ -354,6 +360,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -389,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,26 +581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,28 +611,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -602,23 +648,29 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3545435413</v>
+      </c>
+      <c r="E2">
+        <v>36465465436</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="6">
         <v>25895</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,26 +680,32 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>34643434</v>
+      </c>
+      <c r="E3">
+        <v>34134213242</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="G3" s="6">
         <v>30148</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -657,22 +715,25 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>35432434</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <v>34423</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -700,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,27 +783,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -808,154 +869,159 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3545435413</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
         <v>12.99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>36465465436</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>34643434</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16">
+        <v>34134213242</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
         <v>5.99</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>35432434</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>4</v>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
         <v>5.99</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/DAT215_1/Setup/Normalize to 1NF.xlsx
+++ b/Labs/DAT215_1/Setup/Normalize to 1NF.xlsx
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
